--- a/biology/Médecine/Oh_My_God!_(film)/Oh_My_God!_(film).xlsx
+++ b/biology/Médecine/Oh_My_God!_(film)/Oh_My_God!_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oh My God! (Hysteria), ou La Petite Histoire du plaisir au Québec, est une comédie romantique britannique réalisée par Tanya Wexler, sortie en 2011.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le Londres victorien, le docteur Mortimer Granville, avec l'aide de son ami Edmund St. John-Smythe, invente le vibromasseur comme remède à la prétendue « hystérie féminine ».
 </t>
@@ -542,12 +556,14 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Hysteria
 Titre français : Oh My God!
-Titre québécois : La Petite Histoire du plaisir[1]
+Titre québécois : La Petite Histoire du plaisir
 Réalisation : Tanya Wexler
 Scénario : Jonah Lisa Dyer et Stephen Dyer, d'après une histoire de Jonah Lisa Dyer, Stephen Dyer et Howard Gensler
 Musique : Christian Henson et Gast Waltzing
@@ -558,15 +574,15 @@
 Montage : Jon Gregory (en)
 Production : Tracey Becker, Judy Cairo et Sarah Curtis
 Sociétés de production : Arte, Beachfront Films, By Alternative Pictures, Chimera Films, Delux Productions, Forthcoming Productions, Informant Media, Lankn Media et WDR
-Sociétés de distribution :  BIM Distribuzione (Italie), Haut et Court (France), Les Films Séville[1] (Canada), Paradiso (Belgique), Praesens-Film (Suisse)
-Budget : 15 000 000 de dollars[2]
+Sociétés de distribution :  BIM Distribuzione (Italie), Haut et Court (France), Les Films Séville (Canada), Paradiso (Belgique), Praesens-Film (Suisse)
+Budget : 15 000 000 de dollars
 Pays de production :  Royaume-Uni
 Langue originale : anglais
 Format : couleur - 2.35 : 1 (CinemaScope) - 35 mm – Dolby SR DTS
 Genre : comédie romantique et biopic
 Durée : 95 minutes
 Dates de sortie :
-Canada : 15 septembre 2011 (première mondiale au festival de Toronto) ; 25 mai 2012 (sortie limitée) ; 8 juin 2012 (Québec)[1]
+Canada : 15 septembre 2011 (première mondiale au festival de Toronto) ; 25 mai 2012 (sortie limitée) ; 8 juin 2012 (Québec)
 France : 14 décembre 2011
 Belgique : 22 février 2012
 Royaume-Uni : 21 septembre 2012</t>
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maggie Gyllenhaal (V. F. : Sylvia Bergé) : Charlotte Dalrymple
 Hugh Dancy (V. F. : Dimitri Rataud) : Mortimer Granville
@@ -609,7 +627,7 @@
 Kim Criswell : Mme Castellari, la « patiente » cantatrice italienne
 Gemma Jones : Lady St. John-Smythe
 Anna Chancellor : Mrs Bellamy
-Source et légende : Version française (V. F.) sur le site d’AlterEgo (la société de doublage[3])</t>
+Source et légende : Version française (V. F.) sur le site d’AlterEgo (la société de doublage)</t>
         </is>
       </c>
     </row>
@@ -637,14 +655,16 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tracey Becker, la productrice de Beachfront Films[4], joint la réalisatrice Tanya Wexler avec qui elle parle d'un projet sur l’invention du vibromasseur dans l’Angleterre victorienne. Cette dernière l'accepte sur-le-champ du moment que l’idée la fait rire : « […] je sentais que j’avais un penchant naturel pour ce projet »[5].
-Sur l'histoire imaginée par le couple scénariste confirmé Jonah Lisa et Stephen Dyer en compagnie de Howard Gensler, la réalisatrice souhaite « une nouvelle Audrey Hepburn et un jeune Hugh Grant »[5] pour le besoin du film. Le contrat signé en août 2010, Maggie Gyllenhaal incarne Charlotte Dalrymple, « une énergumène, dont le père est un médecin travaillant sur la guérison des femmes hystériques », et Hugh Dancy endosse les costumes du docteur Mortimer Granville, l'inventeur du vibromasseur[6].
-Jonathan Pryce, quant à lui, s'est déjà engagé depuis le début du projet[5]. Il interprète le docteur Robert Dalrymple, père de Charlotte et d'Emily, sage personnage joué par Felicity Jones. Rupert Everett se transforme en Edmund St John-Smythe, fidèle ami providentiel de Mortimer Granville, qui a une fascination pour les gadgets et l'électricité.
-Pour un projet de 15 000 000 de dollars dont près d'un tiers du budget vient des coproductions britannique et luxembourgeoise[2], Tanya Wexler préfère tourner en Europe plutôt qu'à Hollywood comme l'avaient conseillé d'autres producteurs[5]. Le tournage du film débute en octobre 2010[6] en commençant par Londres en Angleterre pour cinq semaines avant de se rendre au Luxembourg pour une dernière semaine[2].
-La réalisatrice en fait un film réaliste avec des décors fidèles à l’époque grâce à la cheffe décoratrice Sophie Becher, « pas de zooms, rien de moderne » au point de vue cinématographique[5] au côté du directeur de la photographie Sean Bobbitt.
-Oh My God! a été sélectionné au Festival international du film de Toronto en septembre 2011[7] et au Festival international du film de Rome en octobre 2011[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tracey Becker, la productrice de Beachfront Films, joint la réalisatrice Tanya Wexler avec qui elle parle d'un projet sur l’invention du vibromasseur dans l’Angleterre victorienne. Cette dernière l'accepte sur-le-champ du moment que l’idée la fait rire : « […] je sentais que j’avais un penchant naturel pour ce projet ».
+Sur l'histoire imaginée par le couple scénariste confirmé Jonah Lisa et Stephen Dyer en compagnie de Howard Gensler, la réalisatrice souhaite « une nouvelle Audrey Hepburn et un jeune Hugh Grant » pour le besoin du film. Le contrat signé en août 2010, Maggie Gyllenhaal incarne Charlotte Dalrymple, « une énergumène, dont le père est un médecin travaillant sur la guérison des femmes hystériques », et Hugh Dancy endosse les costumes du docteur Mortimer Granville, l'inventeur du vibromasseur.
+Jonathan Pryce, quant à lui, s'est déjà engagé depuis le début du projet. Il interprète le docteur Robert Dalrymple, père de Charlotte et d'Emily, sage personnage joué par Felicity Jones. Rupert Everett se transforme en Edmund St John-Smythe, fidèle ami providentiel de Mortimer Granville, qui a une fascination pour les gadgets et l'électricité.
+Pour un projet de 15 000 000 de dollars dont près d'un tiers du budget vient des coproductions britannique et luxembourgeoise, Tanya Wexler préfère tourner en Europe plutôt qu'à Hollywood comme l'avaient conseillé d'autres producteurs. Le tournage du film débute en octobre 2010 en commençant par Londres en Angleterre pour cinq semaines avant de se rendre au Luxembourg pour une dernière semaine.
+La réalisatrice en fait un film réaliste avec des décors fidèles à l’époque grâce à la cheffe décoratrice Sophie Becher, « pas de zooms, rien de moderne » au point de vue cinématographique au côté du directeur de la photographie Sean Bobbitt.
+Oh My God! a été sélectionné au Festival international du film de Toronto en septembre 2011 et au Festival international du film de Rome en octobre 2011.
 </t>
         </is>
       </c>
@@ -675,9 +695,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-Sur l'agrégateur américain Rotten Tomatoes, le film récolte 59 % d'opinions favorables pour 133 critiques[10]. Sur Metacritic, il obtient une note moyenne de 53⁄100 pour 33 critiques[9].
-En France, le site Allociné propose une note moyenne de 2,5⁄5 à partir de l'interprétation de critiques provenant de 22 titres de presse[11].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l'agrégateur américain Rotten Tomatoes, le film récolte 59 % d'opinions favorables pour 133 critiques. Sur Metacritic, il obtient une note moyenne de 53⁄100 pour 33 critiques.
+En France, le site Allociné propose une note moyenne de 2,5⁄5 à partir de l'interprétation de critiques provenant de 22 titres de presse.
 </t>
         </is>
       </c>
